--- a/Results/Exp_Data.xlsx
+++ b/Results/Exp_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4-BRISTOL\INTERNSHIPS\EF08\Report_and_Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\4-BRISTOL\INTERNSHIPS\EF08\EF08\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="258" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="258" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>M</t>
   </si>
@@ -50,13 +50,7 @@
     <t>T_hover/T_5</t>
   </si>
   <si>
-    <t>Length of pod</t>
-  </si>
-  <si>
     <t>Perching time (minutes), trial    1</t>
-  </si>
-  <si>
-    <t>Perching time (minutes), trial    2</t>
   </si>
   <si>
     <t>Hover time (seconds)</t>
@@ -65,22 +59,7 @@
     <t>Max yaw rate (deg/s)</t>
   </si>
   <si>
-    <t>5 min 58 seconds. 55.25% thrust</t>
-  </si>
-  <si>
-    <t>5 min 58 seconds. 55.75% thrust</t>
-  </si>
-  <si>
-    <t>5 min 52 seconds (57.25% thrust)</t>
-  </si>
-  <si>
-    <t>5 min 45 seconds (57.5% thrust)</t>
-  </si>
-  <si>
     <t>very difficult to keep stable. Leave this as a question: why was it so difficult to tune this one?</t>
-  </si>
-  <si>
-    <t>Should perform these tests at least two times each</t>
   </si>
   <si>
     <t>No monopod</t>
@@ -149,19 +128,13 @@
     <t>r_ykd</t>
   </si>
   <si>
-    <t>5 min 37 seconds</t>
+    <t>Pareto</t>
   </si>
   <si>
-    <t>6 min 4 seconds</t>
+    <t>Length of monopod</t>
   </si>
   <si>
-    <t>6 min 10 seconds (370 seconds). 2Nd trial: 6 min 20 secs. 55% thrust for hovering at ground level. Take average</t>
-  </si>
-  <si>
-    <t>5 min 59 seconds (353 seconds). Second trial: 6 min 19 seconds (Same thrust needed). 55% thrust for hovering above ground level. Take average</t>
-  </si>
-  <si>
-    <t>Pareto</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -494,7 +467,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Exp_data!$F$2:$F$9</c:f>
+              <c:f>Exp_data!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1057,7 +1030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Exp_data!$H$2:$H$9</c:f>
+              <c:f>Exp_data!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1458,7 +1431,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Exp_data!$G$2:$G$9</c:f>
+              <c:f>Exp_data!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7331,10 +7304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7347,33 +7320,27 @@
     <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -7384,21 +7351,18 @@
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
+      <c r="D2">
+        <v>375</v>
+      </c>
+      <c r="E2">
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>375</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <f>F2+C2*60</f>
+        <f>D2+C2*60</f>
         <v>3375</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.02</v>
       </c>
@@ -7409,21 +7373,18 @@
       <c r="C3">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
+      <c r="D3">
+        <v>370</v>
+      </c>
+      <c r="E3">
+        <v>58</v>
       </c>
       <c r="F3">
-        <v>370</v>
-      </c>
-      <c r="G3">
-        <v>58</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="1">F3+C3*60</f>
+        <f>D3+C3*60</f>
         <v>4150</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -7434,21 +7395,18 @@
       <c r="C4">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="D4">
+        <v>364</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
       </c>
       <c r="F4">
-        <v>364</v>
-      </c>
-      <c r="G4">
-        <v>53</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
+        <f>D4+C4*60</f>
         <v>4144</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.04</v>
       </c>
@@ -7459,21 +7417,18 @@
       <c r="C5">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>358</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
       </c>
       <c r="F5">
-        <v>358</v>
-      </c>
-      <c r="G5">
-        <v>47</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
+        <f>D5+C5*60</f>
         <v>3898</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.06</v>
       </c>
@@ -7484,27 +7439,18 @@
       <c r="C6">
         <v>52</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>358</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>358</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+        <f>D6+C6*60</f>
         <v>3478</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.08</v>
       </c>
@@ -7515,27 +7461,18 @@
       <c r="C7">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="D7">
+        <v>352</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>352</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+        <f>D7+C7*60</f>
         <v>3052</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -7546,27 +7483,18 @@
       <c r="C8">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="D8">
+        <v>345</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+        <f>D8+C8*60</f>
         <v>2805</v>
       </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -7577,27 +7505,18 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
+      <c r="D9">
+        <v>337</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>337</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+        <f>D9+C9*60</f>
         <v>2737</v>
       </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.14000000000000001</v>
       </c>
@@ -7605,14 +7524,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.16</v>
       </c>
@@ -7621,16 +7534,10 @@
         <v>4.5714285714285712</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="L11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -7638,14 +7545,8 @@
         <f t="shared" si="0"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.24</v>
       </c>
@@ -7653,30 +7554,19 @@
         <f t="shared" si="0"/>
         <v>6.8571428571428559</v>
       </c>
-      <c r="K13">
-        <v>12</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -7704,8 +7594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7715,64 +7605,64 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -8275,20 +8165,32 @@
       <c r="S9">
         <v>30</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.16</v>
       </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.2</v>
       </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
